--- a/cambridge/elections/2014/camcitco/probs.xlsx
+++ b/cambridge/elections/2014/camcitco/probs.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="435" windowWidth="24675" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="435" windowWidth="24675" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
-    <sheet name="lab" sheetId="2" r:id="rId2"/>
-    <sheet name="ld" sheetId="3" r:id="rId3"/>
-    <sheet name="con (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="ld" sheetId="5" r:id="rId2"/>
+    <sheet name="lab" sheetId="7" r:id="rId3"/>
+    <sheet name="con" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1322,11 +1322,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="100"/>
-        <c:axId val="136604288"/>
-        <c:axId val="136679808"/>
+        <c:axId val="140550528"/>
+        <c:axId val="140552064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136604288"/>
+        <c:axId val="140550528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1335,7 +1335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136679808"/>
+        <c:crossAx val="140552064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1343,7 +1343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136679808"/>
+        <c:axId val="140552064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1356,7 +1356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136604288"/>
+        <c:crossAx val="140550528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1403,12 +1403,21 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0"/>
-              <a:t>Assumed chance of winning each seat</a:t>
+              <a:rPr lang="en-GB" sz="1380" b="0"/>
+              <a:t>Assumed chance of winning each seat (optimistic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1380" b="0" baseline="0"/>
+              <a:t> Conservative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1380" b="0"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1423,7 +1432,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$B$1</c:f>
+              <c:f>con!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1440,7 +1449,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'con (2)'!$A$2:$A$15</c:f>
+              <c:f>con!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1490,7 +1499,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$B$2:$B$15</c:f>
+              <c:f>con!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1498,43 +1507,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9.9999999999999895E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9999999999999895E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1554,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$C$1</c:f>
+              <c:f>con!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1562,7 +1571,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'con (2)'!$A$2:$A$15</c:f>
+              <c:f>con!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1612,51 +1621,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$C$2:$C$15</c:f>
+              <c:f>con!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19999999999999901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1676,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$D$1</c:f>
+              <c:f>con!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1684,7 +1693,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'con (2)'!$A$2:$A$15</c:f>
+              <c:f>con!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1734,51 +1743,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$D$2:$D$15</c:f>
+              <c:f>con!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +1798,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$E$1</c:f>
+              <c:f>con!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1806,7 +1815,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'con (2)'!$A$2:$A$15</c:f>
+              <c:f>con!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1856,12 +1865,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$E$2:$E$15</c:f>
+              <c:f>con!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1911,7 +1920,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$F$1</c:f>
+              <c:f>con!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1930,7 +1939,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'con (2)'!$A$2:$A$15</c:f>
+              <c:f>con!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1980,7 +1989,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$F$2:$F$15</c:f>
+              <c:f>con!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1991,7 +2000,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2040,11 +2049,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="100"/>
-        <c:axId val="99554432"/>
-        <c:axId val="99555968"/>
+        <c:axId val="122109312"/>
+        <c:axId val="122115584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99554432"/>
+        <c:axId val="122109312"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2053,7 +2062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99555968"/>
+        <c:crossAx val="122115584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2061,7 +2070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99555968"/>
+        <c:axId val="122115584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2074,7 +2083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99554432"/>
+        <c:crossAx val="122109312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2082,6 +2091,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2121,13 +2131,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0"/>
-              <a:t>Outcome probabilities </a:t>
+              <a:t>Predicted overall outcome (optimistic Conservative)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-              <a:t>predicted by the model</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2146,7 +2151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$B$17</c:f>
+              <c:f>con!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2167,7 +2172,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'con (2)'!$A$18:$A$24</c:f>
+              <c:f>con!$A$18:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2196,27 +2201,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$B$18:$B$24</c:f>
+              <c:f>con!$B$18:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.978629720929031</c:v>
+                  <c:v>0.56692915199999905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9313423408560002E-2</c:v>
+                  <c:v>0.23316940800000499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52095576543E-3</c:v>
+                  <c:v>0.19990117457921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8407972108400002E-4</c:v>
+                  <c:v>2.6542079999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0237175886E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1583000000000001E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2234,11 +2239,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="25"/>
-        <c:axId val="99212672"/>
-        <c:axId val="99218560"/>
+        <c:axId val="122123008"/>
+        <c:axId val="122124544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99212672"/>
+        <c:axId val="122123008"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2257,7 +2262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99218560"/>
+        <c:crossAx val="122124544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2265,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99218560"/>
+        <c:axId val="122124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3"/>
@@ -2284,7 +2289,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="99212672"/>
+        <c:crossAx val="122123008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -2327,11 +2332,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" b="0"/>
-              <a:t>Number of</a:t>
+              <a:t>Predicted number of seats</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" b="0" baseline="0"/>
-              <a:t> seats predicted by the model</a:t>
+              <a:t> (optimistic Conservative)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600" b="0"/>
           </a:p>
@@ -2343,16 +2348,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$B$27</c:f>
+              <c:f>con!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2362,14 +2366,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'con (2)'!$A$28:$A$58</c:f>
+              <c:f>con!$A$28:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2471,113 +2490,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$B$28:$B$58</c:f>
+              <c:f>con!$B$28:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.93913999999999E-4</c:v>
+                  <c:v>6.8039999999999906E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.07435499999999E-3</c:v>
+                  <c:v>0.240840000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.07135045E-2</c:v>
+                  <c:v>0.340200000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7943693250000001E-2</c:v>
+                  <c:v>0.24300000000000399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18061811575</c:v>
+                  <c:v>9.0799999999999395E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26705589524999901</c:v>
+                  <c:v>1.61599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25132820574999798</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.14477647674999899</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6660469250000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1379967500000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8579074999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1583000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>9.6000000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$C$27</c:f>
+              <c:f>con!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2587,14 +2538,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'con (2)'!$A$28:$A$58</c:f>
+              <c:f>con!$A$28:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2696,113 +2662,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$C$28:$C$58</c:f>
+              <c:f>con!$C$28:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0592E-10</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8700600000000002E-8</c:v>
+                  <c:v>1.76947199999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8409262799999998E-6</c:v>
+                  <c:v>1.2506112E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.03067364799999E-4</c:v>
+                  <c:v>5.1254271999999802E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9509084648E-3</c:v>
+                  <c:v>0.134260991999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9313423408560002E-2</c:v>
+                  <c:v>0.23316940800000499</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7045838016400002E-2</c:v>
+                  <c:v>0.268532928000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23435229213983899</c:v>
+                  <c:v>0.19780588800000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.30441520160719998</c:v>
+                  <c:v>8.4587328000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22539681781819901</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.4760107724519996E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.08343605679999E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8251030548799901E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.6003007999999899E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'con (2)'!$D$27</c:f>
+              <c:f>con!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2812,14 +2713,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'con (2)'!$A$28:$A$58</c:f>
+              <c:f>con!$A$28:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2921,106 +2837,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'con (2)'!$D$28:$D$58</c:f>
+              <c:f>con!$D$28:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57623999999999898</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40767999999999399</c:v>
+                  <c:v>1.2771924479999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.592E-2</c:v>
+                  <c:v>9.7099793279999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6000000000000001E-4</c:v>
+                  <c:v>4.0282831871999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.10518994079999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.18587772249599999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.23123568262400199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.206616353024001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.133343560895999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.1648156799999798E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.9912131071999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.2663905279999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>5.4469324800000005E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3030,23 +2890,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="100"/>
-        <c:axId val="99600640"/>
-        <c:axId val="99606528"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="135744512"/>
+        <c:axId val="135775744"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="99600640"/>
+        <c:axId val="135744512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0"/>
+                  <a:t>Number of seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99606528"/>
+        <c:crossAx val="135775744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3055,7 +2934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99606528"/>
+        <c:axId val="135775744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -3070,11 +2949,30 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99600640"/>
+        <c:crossAx val="135744512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3122,13 +3020,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0"/>
-              <a:t>Outcome probabilities </a:t>
+              <a:t>Predicted overall outcome</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-              <a:t>predicted by the model</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3199,7 +3092,7 @@
             <c:numRef>
               <c:f>base!$B$18:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.978629720929031</c:v>
@@ -3235,11 +3128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="25"/>
-        <c:axId val="125535360"/>
-        <c:axId val="125536896"/>
+        <c:axId val="140839168"/>
+        <c:axId val="140845056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125535360"/>
+        <c:axId val="140839168"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3258,7 +3151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125536896"/>
+        <c:crossAx val="140845056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3266,7 +3159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125536896"/>
+        <c:axId val="140845056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3"/>
@@ -3285,7 +3178,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="125535360"/>
+        <c:crossAx val="140839168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -3328,13 +3221,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" b="0"/>
-              <a:t>Number of</a:t>
+              <a:t>Predicted number of seats</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600" b="0" baseline="0"/>
-              <a:t> seats predicted by the model</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1600" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3344,12 +3232,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -3363,11 +3250,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>base!$A$28:$A$58</c:f>
@@ -3476,39 +3378,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.93913999999999E-4</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>3.07435499999999E-3</c:v>
                 </c:pt>
@@ -3535,46 +3404,14 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7.1379967500000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8579074999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1583000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -3588,11 +3425,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>base!$A$28:$A$58</c:f>
@@ -3701,66 +3553,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0592E-10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8700600000000002E-8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8409262799999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.03067364799999E-4</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>1.9509084648E-3</c:v>
                 </c:pt>
@@ -3787,19 +3579,14 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.8251030548799901E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -3813,11 +3600,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>base!$A$28:$A$58</c:f>
@@ -3926,9 +3728,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.57623999999999898</c:v>
                 </c:pt>
@@ -3937,91 +3736,11 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.592E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4031,23 +3750,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="100"/>
-        <c:axId val="99076352"/>
-        <c:axId val="118044160"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="142525568"/>
+        <c:axId val="142602240"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="99076352"/>
+        <c:axId val="142525568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0"/>
+                  <a:t>Number of seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118044160"/>
+        <c:crossAx val="142602240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4056,7 +3794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118044160"/>
+        <c:axId val="142602240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -4071,11 +3809,30 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99076352"/>
+        <c:crossAx val="142525568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4123,7 +3880,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1400" b="0"/>
-              <a:t>Assumed chance of winning each seat</a:t>
+              <a:t>Assumed chance of winning each seat (optimistic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" baseline="0"/>
+              <a:t> Lib Dem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4143,7 +3908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$B$1</c:f>
+              <c:f>ld!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4160,7 +3925,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lab!$A$2:$A$15</c:f>
+              <c:f>ld!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -4210,7 +3975,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$B$2:$B$15</c:f>
+              <c:f>ld!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4218,43 +3983,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999895E-2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9999999999999895E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4265,7 +4030,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$C$1</c:f>
+              <c:f>ld!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4282,7 +4047,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lab!$A$2:$A$15</c:f>
+              <c:f>ld!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -4332,51 +4097,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$C$2:$C$15</c:f>
+              <c:f>ld!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.19999999999999901</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4</c:v>
+                  <c:v>9.9999999999999895E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4387,7 +4152,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$D$1</c:f>
+              <c:f>ld!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4404,7 +4169,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lab!$A$2:$A$15</c:f>
+              <c:f>ld!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -4454,7 +4219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$D$2:$D$15</c:f>
+              <c:f>ld!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4468,10 +4233,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4495,7 +4260,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4509,7 +4274,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$E$1</c:f>
+              <c:f>ld!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4526,7 +4291,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lab!$A$2:$A$15</c:f>
+              <c:f>ld!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -4576,12 +4341,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$E$2:$E$15</c:f>
+              <c:f>ld!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4631,7 +4396,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$F$1</c:f>
+              <c:f>ld!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4650,7 +4415,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lab!$A$2:$A$15</c:f>
+              <c:f>ld!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -4700,7 +4465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$F$2:$F$15</c:f>
+              <c:f>ld!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4711,7 +4476,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>9.9999999999999895E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4760,11 +4525,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="100"/>
-        <c:axId val="144400384"/>
-        <c:axId val="144402688"/>
+        <c:axId val="135481600"/>
+        <c:axId val="135488256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144400384"/>
+        <c:axId val="135481600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4773,7 +4538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144402688"/>
+        <c:crossAx val="135488256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4781,7 +4546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144402688"/>
+        <c:axId val="135488256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4794,7 +4559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144400384"/>
+        <c:crossAx val="135481600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -4842,13 +4607,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0"/>
-              <a:t>Outcome probabilities </a:t>
+              <a:t>Predicted overall outcome (optimistic Lib Dem)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-              <a:t>predicted by the model</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4867,7 +4627,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$B$17</c:f>
+              <c:f>ld!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4888,7 +4648,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>lab!$A$18:$A$24</c:f>
+              <c:f>ld!$A$18:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4917,27 +4677,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$B$18:$B$24</c:f>
+              <c:f>ld!$B$18:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.978629720929031</c:v>
+                  <c:v>0.26093285500000102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9313423408560002E-2</c:v>
+                  <c:v>0.24559070999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52095576543E-3</c:v>
+                  <c:v>0.24155414568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8407972108400002E-4</c:v>
+                  <c:v>0.106126566119999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0237175886E-5</c:v>
+                  <c:v>0.1164024432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1583000000000001E-5</c:v>
+                  <c:v>2.9393280000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4955,11 +4715,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="25"/>
-        <c:axId val="174513536"/>
-        <c:axId val="175894912"/>
+        <c:axId val="45713664"/>
+        <c:axId val="45719552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174513536"/>
+        <c:axId val="45713664"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4978,7 +4738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175894912"/>
+        <c:crossAx val="45719552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4986,7 +4746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175894912"/>
+        <c:axId val="45719552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3"/>
@@ -5005,7 +4765,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="174513536"/>
+        <c:crossAx val="45713664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -5048,11 +4808,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" b="0"/>
-              <a:t>Number of</a:t>
+              <a:t>Predicted number of seats</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" b="0" baseline="0"/>
-              <a:t> seats predicted by the model</a:t>
+              <a:t> (optimistic Lib Dem)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600" b="0"/>
           </a:p>
@@ -5068,11 +4828,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$B$27</c:f>
+              <c:f>ld!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5082,9 +4842,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -5107,7 +4864,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>lab!$A$28:$A$58</c:f>
+              <c:f>ld!$A$28:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5209,36 +4966,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$B$28:$B$58</c:f>
+              <c:f>ld!$B$28:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="11">
-                  <c:v>3.07435499999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.07135045E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7943693250000001E-2</c:v>
+                  <c:v>6.9850999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18061811575</c:v>
+                  <c:v>5.1886699999999699E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26705589524999901</c:v>
+                  <c:v>2.5507209999999801E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25132820574999798</c:v>
+                  <c:v>8.4564050000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14477647674999899</c:v>
+                  <c:v>0.18877184999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6660469250000003E-2</c:v>
+                  <c:v>0.27756818999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1379967500000002E-3</c:v>
+                  <c:v>0.25562627999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13261967999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9393280000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5246,11 +5006,11 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$C$27</c:f>
+              <c:f>ld!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5260,9 +5020,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5285,7 +5042,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>lab!$A$28:$A$58</c:f>
+              <c:f>ld!$A$28:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5387,36 +5144,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$C$28:$C$58</c:f>
+              <c:f>ld!$C$28:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="16">
+                  <c:v>1.4696640000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.51632E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6445109999999905E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16280241299999901</c:v>
+                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9509084648E-3</c:v>
+                  <c:v>0.24759604800000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9313423408560002E-2</c:v>
+                  <c:v>0.24559070999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7045838016400002E-2</c:v>
+                  <c:v>0.16258445799999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23435229213983899</c:v>
+                  <c:v>7.22906080000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.30441520160719998</c:v>
+                  <c:v>2.1415061999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22539681781819901</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.4760107724519996E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.08343605679999E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8251030548799901E-3</c:v>
+                  <c:v>4.1210019999999899E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5424,11 +5184,11 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>lab!$D$27</c:f>
+              <c:f>ld!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5438,9 +5198,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5463,7 +5220,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>lab!$A$28:$A$58</c:f>
+              <c:f>ld!$A$28:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5565,18 +5322,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lab!$D$28:$D$58</c:f>
+              <c:f>ld!$D$28:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>0.57623999999999898</c:v>
+                  <c:v>0.39200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40767999999999399</c:v>
+                  <c:v>0.43400000000000299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.592E-2</c:v>
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5593,11 +5353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49479040"/>
-        <c:axId val="49796224"/>
+        <c:axId val="45740800"/>
+        <c:axId val="45743104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49479040"/>
+        <c:axId val="45740800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5626,15 +5386,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49796224"/>
+        <c:crossAx val="45743104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="50"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49796224"/>
+        <c:axId val="45743104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -5672,7 +5433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49479040"/>
+        <c:crossAx val="45740800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5720,7 +5481,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1400" b="0"/>
-              <a:t>Assumed chance of winning each seat</a:t>
+              <a:t>Assumed chance of winning each seat (optimistic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" baseline="0"/>
+              <a:t> Labour</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5740,7 +5509,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ld!$B$1</c:f>
+              <c:f>lab!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5757,7 +5526,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ld!$A$2:$A$15</c:f>
+              <c:f>lab!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -5807,7 +5576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ld!$B$2:$B$15</c:f>
+              <c:f>lab!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -5815,40 +5584,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.3</c:v>
@@ -5862,7 +5631,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ld!$C$1</c:f>
+              <c:f>lab!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5879,7 +5648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ld!$A$2:$A$15</c:f>
+              <c:f>lab!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -5929,45 +5698,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ld!$C$2:$C$15</c:f>
+              <c:f>lab!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9999999999999895E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19999999999999901</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9999999999999895E-2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -5984,7 +5753,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ld!$D$1</c:f>
+              <c:f>lab!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6001,7 +5770,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ld!$A$2:$A$15</c:f>
+              <c:f>lab!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -6051,7 +5820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ld!$D$2:$D$15</c:f>
+              <c:f>lab!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -6065,10 +5834,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6092,7 +5861,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19999999999999901</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -6106,7 +5875,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ld!$E$1</c:f>
+              <c:f>lab!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6123,7 +5892,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ld!$A$2:$A$15</c:f>
+              <c:f>lab!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -6173,12 +5942,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ld!$E$2:$E$15</c:f>
+              <c:f>lab!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6228,7 +5997,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>ld!$F$1</c:f>
+              <c:f>lab!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6247,7 +6016,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ld!$A$2:$A$15</c:f>
+              <c:f>lab!$A$2:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -6297,7 +6066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ld!$F$2:$F$15</c:f>
+              <c:f>lab!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -6308,7 +6077,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9999999999999895E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6357,11 +6126,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="100"/>
-        <c:axId val="70682496"/>
-        <c:axId val="70684032"/>
+        <c:axId val="147938688"/>
+        <c:axId val="45708416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70682496"/>
+        <c:axId val="147938688"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6370,7 +6139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70684032"/>
+        <c:crossAx val="45708416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6378,7 +6147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70684032"/>
+        <c:axId val="45708416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6391,7 +6160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70682496"/>
+        <c:crossAx val="147938688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -6439,13 +6208,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0"/>
-              <a:t>Outcome probabilities </a:t>
+              <a:t>Predicted overall outcome (optimistic Labour)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-              <a:t>predicted by the model</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6464,7 +6228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ld!$B$17</c:f>
+              <c:f>lab!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6485,7 +6249,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ld!$A$18:$A$24</c:f>
+              <c:f>lab!$A$18:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6514,27 +6278,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ld!$B$18:$B$24</c:f>
+              <c:f>lab!$B$18:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.978629720929031</c:v>
+                  <c:v>0.99920885000000104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9313423408560002E-2</c:v>
+                  <c:v>7.5584999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52095576543E-3</c:v>
+                  <c:v>2.7759999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8407972108400002E-4</c:v>
+                  <c:v>7.1200000000000098E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0237175886E-5</c:v>
+                  <c:v>2.9999999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1583000000000001E-5</c:v>
+                  <c:v>1.1999999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6552,11 +6316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="25"/>
-        <c:axId val="70693248"/>
-        <c:axId val="70694784"/>
+        <c:axId val="46559616"/>
+        <c:axId val="46561152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70693248"/>
+        <c:axId val="46559616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6575,7 +6339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70694784"/>
+        <c:crossAx val="46561152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6583,7 +6347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70694784"/>
+        <c:axId val="46561152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3"/>
@@ -6602,7 +6366,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="70693248"/>
+        <c:crossAx val="46559616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -6645,11 +6409,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" b="0"/>
-              <a:t>Number of</a:t>
+              <a:t>Predicted number of seats</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" b="0" baseline="0"/>
-              <a:t> seats predicted by the model</a:t>
+              <a:t> (optimistic Labour)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600" b="0"/>
           </a:p>
@@ -6665,7 +6429,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -6807,32 +6571,32 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="10">
+                  <c:v>1.3816372499999899E-2</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.07435499999999E-3</c:v>
+                  <c:v>7.7992672499999902E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.07135045E-2</c:v>
+                  <c:v>0.19187462249999901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7943693250000001E-2</c:v>
+                  <c:v>0.26990894249999903</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18061811575</c:v>
+                  <c:v>0.23928963749999899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26705589524999901</c:v>
+                  <c:v>0.13887303749999899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25132820574999798</c:v>
+                  <c:v>5.3038607499999897E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14477647674999899</c:v>
+                  <c:v>1.3056527499999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6660469250000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1379967500000002E-3</c:v>
+                  <c:v>1.9735199999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6840,7 +6604,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -6982,32 +6746,29 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="20">
-                  <c:v>1.9509084648E-3</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9313423408560002E-2</c:v>
+                  <c:v>7.5584999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7045838016400002E-2</c:v>
+                  <c:v>7.9259250000000107E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23435229213983899</c:v>
+                  <c:v>4.4334049999999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.30441520160719998</c:v>
+                  <c:v>0.142469024999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22539681781819901</c:v>
+                  <c:v>0.271691549999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.4760107724519996E-2</c:v>
+                  <c:v>0.30351577499999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.08343605679999E-2</c:v>
+                  <c:v>0.18321794999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8251030548799901E-3</c:v>
+                  <c:v>4.6054574999999903E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7015,7 +6776,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -7158,13 +6919,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>0.57623999999999898</c:v>
+                  <c:v>0.39999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40767999999999399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.592E-2</c:v>
+                  <c:v>0.59999999999999798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7181,11 +6939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175896448"/>
-        <c:axId val="176560000"/>
+        <c:axId val="46709376"/>
+        <c:axId val="46871680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175896448"/>
+        <c:axId val="46709376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7214,15 +6972,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176560000"/>
+        <c:crossAx val="46871680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="50"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176560000"/>
+        <c:axId val="46871680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -7260,7 +7019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175896448"/>
+        <c:crossAx val="46709376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -7318,15 +7077,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7348,20 +7107,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7415,15 +7176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7447,15 +7208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7516,15 +7277,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7548,19 +7309,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7617,15 +7378,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7649,15 +7410,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7970,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="V57" sqref="V57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8288,7 +8049,7 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.978629720929031</v>
       </c>
     </row>
@@ -8296,7 +8057,7 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1.9313423408560002E-2</v>
       </c>
     </row>
@@ -8304,7 +8065,7 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1.52095576543E-3</v>
       </c>
     </row>
@@ -8312,7 +8073,7 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>4.8407972108400002E-4</v>
       </c>
     </row>
@@ -8320,7 +8081,7 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>4.0237175886E-5</v>
       </c>
     </row>
@@ -8328,7 +8089,7 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1.1583000000000001E-5</v>
       </c>
     </row>
@@ -8336,7 +8097,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8372,15 +8133,9 @@
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>0.97999999999999199</v>
       </c>
@@ -8392,12 +8147,8 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>0.57623999999999898</v>
       </c>
@@ -8412,12 +8163,8 @@
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>0.40767999999999399</v>
       </c>
@@ -8432,12 +8179,8 @@
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>1.592E-2</v>
       </c>
@@ -8452,15 +8195,9 @@
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.6000000000000001E-4</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -8472,15 +8209,9 @@
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -8492,15 +8223,9 @@
       <c r="A34">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -8512,15 +8237,9 @@
       <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -8532,15 +8251,9 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2">
         <v>0</v>
       </c>
@@ -8552,15 +8265,9 @@
       <c r="A37">
         <v>9</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
         <v>0</v>
       </c>
@@ -8572,15 +8279,9 @@
       <c r="A38">
         <v>10</v>
       </c>
-      <c r="B38" s="2">
-        <v>1.93913999999999E-4</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2">
         <v>0</v>
       </c>
@@ -8595,12 +8296,8 @@
       <c r="B39" s="2">
         <v>3.07435499999999E-3</v>
       </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2">
         <v>0</v>
       </c>
@@ -8615,12 +8312,8 @@
       <c r="B40" s="2">
         <v>2.07135045E-2</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2">
         <v>0</v>
       </c>
@@ -8635,12 +8328,8 @@
       <c r="B41" s="2">
         <v>7.7943693250000001E-2</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2">
         <v>0</v>
       </c>
@@ -8655,12 +8344,8 @@
       <c r="B42" s="2">
         <v>0.18061811575</v>
       </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2">
         <v>0</v>
       </c>
@@ -8675,12 +8360,8 @@
       <c r="B43" s="2">
         <v>0.26705589524999901</v>
       </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2">
         <v>0</v>
       </c>
@@ -8695,12 +8376,8 @@
       <c r="B44" s="2">
         <v>0.25132820574999798</v>
       </c>
-      <c r="C44" s="2">
-        <v>2.0592E-10</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>0</v>
       </c>
@@ -8715,12 +8392,8 @@
       <c r="B45" s="2">
         <v>0.14477647674999899</v>
       </c>
-      <c r="C45" s="2">
-        <v>3.8700600000000002E-8</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
       </c>
@@ -8735,12 +8408,8 @@
       <c r="B46" s="2">
         <v>4.6660469250000003E-2</v>
       </c>
-      <c r="C46" s="2">
-        <v>2.8409262799999998E-6</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>0</v>
       </c>
@@ -8755,12 +8424,8 @@
       <c r="B47" s="2">
         <v>7.1379967500000002E-3</v>
       </c>
-      <c r="C47" s="2">
-        <v>1.03067364799999E-4</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2">
         <v>0</v>
       </c>
@@ -8772,15 +8437,11 @@
       <c r="A48">
         <v>20</v>
       </c>
-      <c r="B48" s="2">
-        <v>4.8579074999999998E-4</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2">
         <v>1.9509084648E-3</v>
       </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="2">
         <v>0</v>
       </c>
@@ -8792,15 +8453,11 @@
       <c r="A49">
         <v>21</v>
       </c>
-      <c r="B49" s="2">
-        <v>1.1583000000000001E-5</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2">
         <v>1.9313423408560002E-2</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2">
         <v>0</v>
       </c>
@@ -8812,15 +8469,11 @@
       <c r="A50">
         <v>22</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2">
         <v>9.7045838016400002E-2</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2">
         <v>0</v>
       </c>
@@ -8832,15 +8485,11 @@
       <c r="A51">
         <v>23</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2">
         <v>0.23435229213983899</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2">
         <v>0</v>
       </c>
@@ -8852,15 +8501,11 @@
       <c r="A52">
         <v>24</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2">
         <v>0.30441520160719998</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2">
         <v>0</v>
       </c>
@@ -8872,15 +8517,11 @@
       <c r="A53">
         <v>25</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2">
         <v>0.22539681781819901</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2">
         <v>0</v>
       </c>
@@ -8892,15 +8533,11 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2">
         <v>9.4760107724519996E-2</v>
       </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2">
         <v>0</v>
       </c>
@@ -8912,15 +8549,11 @@
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2">
         <v>2.08343605679999E-2</v>
       </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2">
         <v>0</v>
       </c>
@@ -8932,15 +8565,11 @@
       <c r="A56">
         <v>28</v>
       </c>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2">
         <v>1.8251030548799901E-3</v>
       </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2">
         <v>0</v>
       </c>
@@ -8952,15 +8581,9 @@
       <c r="A57">
         <v>29</v>
       </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2">
         <v>0</v>
       </c>
@@ -8972,15 +8595,9 @@
       <c r="A58">
         <v>30</v>
       </c>
-      <c r="B58" s="2">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2">
         <v>0</v>
       </c>
@@ -8998,8 +8615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9032,13 +8649,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -9049,10 +8666,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>9.9999999999999895E-2</v>
+        <v>0.6</v>
       </c>
       <c r="C3" s="1">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -9069,7 +8686,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -9081,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.25</v>
+        <v>9.9999999999999895E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9092,10 +8709,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.98</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -9112,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.98</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -9129,10 +8746,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -9149,10 +8766,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -9169,10 +8786,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.4</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -9189,10 +8806,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C10" s="1">
-        <v>0.19999999999999901</v>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -9209,10 +8826,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>9.9999999999999895E-2</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -9229,10 +8846,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="C12" s="1">
-        <v>0.35</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -9249,10 +8866,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C13" s="1">
-        <v>0.4</v>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -9269,13 +8886,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.4</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -9289,10 +8906,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="C15" s="1">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -9316,55 +8933,55 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.978629720929031</v>
+      <c r="B18" s="2">
+        <v>0.26093285500000102</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3">
-        <v>1.9313423408560002E-2</v>
+      <c r="B19" s="2">
+        <v>0.24559070999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
-        <v>1.52095576543E-3</v>
+      <c r="B20" s="2">
+        <v>0.24155414568</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
-        <v>4.8407972108400002E-4</v>
+      <c r="B21" s="2">
+        <v>0.106126566119999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3">
-        <v>4.0237175886E-5</v>
+      <c r="B22" s="2">
+        <v>0.1164024432</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
-        <v>1.1583000000000001E-5</v>
+      <c r="B23" s="2">
+        <v>2.9393280000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -9373,7 +8990,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>0.99999999999999101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9404,7 +9021,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <v>0.97999999999999199</v>
+        <v>0.6</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -9417,13 +9034,13 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <v>0.57623999999999898</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="E29" s="2">
-        <v>1.99999999999999E-2</v>
+        <v>0.40000000000000102</v>
       </c>
       <c r="F29" s="2">
-        <v>0.749999999999999</v>
+        <v>0.89999999999999902</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9433,13 +9050,13 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>0.40767999999999399</v>
+        <v>0.43400000000000299</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>0.249999999999996</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9449,7 +9066,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <v>1.592E-2</v>
+        <v>0.156</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -9464,7 +9081,9 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1.7999999999999901E-2</v>
+      </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -9560,9 +9179,7 @@
       <c r="A39">
         <v>11</v>
       </c>
-      <c r="B39" s="2">
-        <v>3.07435499999999E-3</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
@@ -9576,9 +9193,7 @@
       <c r="A40">
         <v>12</v>
       </c>
-      <c r="B40" s="2">
-        <v>2.07135045E-2</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2">
@@ -9593,7 +9208,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>7.7943693250000001E-2</v>
+        <v>6.9850999999999995E-4</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -9609,7 +9224,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="2">
-        <v>0.18061811575</v>
+        <v>5.1886699999999699E-3</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -9625,7 +9240,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="2">
-        <v>0.26705589524999901</v>
+        <v>2.5507209999999801E-2</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -9641,9 +9256,11 @@
         <v>16</v>
       </c>
       <c r="B44" s="2">
-        <v>0.25132820574999798</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>8.4564050000000002E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.4696640000000001E-3</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>0</v>
@@ -9657,9 +9274,11 @@
         <v>17</v>
       </c>
       <c r="B45" s="2">
-        <v>0.14477647674999899</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>0.18877184999999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.51632E-2</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
@@ -9673,9 +9292,11 @@
         <v>18</v>
       </c>
       <c r="B46" s="2">
-        <v>4.6660469250000003E-2</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>0.27756818999999999</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.6445109999999905E-2</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>0</v>
@@ -9689,9 +9310,11 @@
         <v>19</v>
       </c>
       <c r="B47" s="2">
-        <v>7.1379967500000002E-3</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>0.25562627999999998</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.16280241299999901</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
         <v>0</v>
@@ -9704,9 +9327,11 @@
       <c r="A48">
         <v>20</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2">
+        <v>0.13261967999999999</v>
+      </c>
       <c r="C48" s="2">
-        <v>1.9509084648E-3</v>
+        <v>0.24759604800000001</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
@@ -9720,9 +9345,11 @@
       <c r="A49">
         <v>21</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2">
+        <v>2.9393280000000001E-2</v>
+      </c>
       <c r="C49" s="2">
-        <v>1.9313423408560002E-2</v>
+        <v>0.24559070999999999</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
@@ -9736,9 +9363,11 @@
       <c r="A50">
         <v>22</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
       <c r="C50" s="2">
-        <v>9.7045838016400002E-2</v>
+        <v>0.16258445799999999</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
@@ -9754,7 +9383,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
-        <v>0.23435229213983899</v>
+        <v>7.22906080000002E-2</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2">
@@ -9770,7 +9399,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2">
-        <v>0.30441520160719998</v>
+        <v>2.1415061999999999E-2</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2">
@@ -9786,7 +9415,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
-        <v>0.22539681781819901</v>
+        <v>4.1210019999999899E-3</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2">
@@ -9801,9 +9430,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2">
-        <v>9.4760107724519996E-2</v>
-      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
         <v>0</v>
@@ -9817,9 +9444,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2">
-        <v>2.08343605679999E-2</v>
-      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2">
         <v>0</v>
@@ -9833,9 +9458,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2">
-        <v>1.8251030548799901E-3</v>
-      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
         <v>0</v>
@@ -9882,8 +9505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9916,13 +9539,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -9933,10 +9556,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.4</v>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -9953,7 +9576,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -9965,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>9.9999999999999895E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9976,10 +9599,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -9996,10 +9619,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -10013,10 +9636,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.75</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.25</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -10033,10 +9656,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C8" s="1">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -10053,10 +9676,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C9" s="1">
-        <v>0.19999999999999901</v>
+        <v>0.6</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -10073,10 +9696,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="1">
-        <v>9.9999999999999895E-2</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -10093,10 +9716,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C11" s="1">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -10113,10 +9736,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C12" s="1">
-        <v>0.19999999999999901</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -10133,10 +9756,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C13" s="1">
-        <v>9.9999999999999895E-2</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -10153,13 +9776,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.19999999999999901</v>
+        <v>0.6</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -10200,55 +9823,55 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.978629720929031</v>
+      <c r="B18" s="2">
+        <v>0.99920885000000104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3">
-        <v>1.9313423408560002E-2</v>
+      <c r="B19" s="2">
+        <v>7.5584999999999997E-4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
-        <v>1.52095576543E-3</v>
+      <c r="B20" s="2">
+        <v>2.7759999999999998E-5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
-        <v>4.8407972108400002E-4</v>
+      <c r="B21" s="2">
+        <v>7.1200000000000098E-6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3">
-        <v>4.0237175886E-5</v>
+      <c r="B22" s="2">
+        <v>2.9999999999999999E-7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
-        <v>1.1583000000000001E-5</v>
+      <c r="B23" s="2">
+        <v>1.1999999999999999E-7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -10257,7 +9880,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>0.99999999999999101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10284,17 +9907,11 @@
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -10304,55 +9921,41 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <v>0.39200000000000002</v>
+        <v>0.39999999999999802</v>
       </c>
       <c r="E29" s="2">
-        <v>0.40000000000000102</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>0.89999999999999902</v>
+        <v>0.499999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>0.43400000000000299</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>0.1</v>
+        <v>0.499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.156</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -10364,15 +9967,9 @@
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.7999999999999901E-2</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -10384,15 +9981,9 @@
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -10404,15 +9995,9 @@
       <c r="A34">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -10424,15 +10009,9 @@
       <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -10444,15 +10023,9 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2">
         <v>0</v>
       </c>
@@ -10464,15 +10037,9 @@
       <c r="A37">
         <v>9</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
         <v>0</v>
       </c>
@@ -10485,14 +10052,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="2">
-        <v>2.09999999999999E-7</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
+        <v>1.3816372499999899E-2</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2">
         <v>0</v>
       </c>
@@ -10505,14 +10068,10 @@
         <v>11</v>
       </c>
       <c r="B39" s="2">
-        <v>9.4699999999999805E-6</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
+        <v>7.7992672499999902E-2</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2">
         <v>0</v>
       </c>
@@ -10525,14 +10084,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="2">
-        <v>1.8175E-4</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
+        <v>0.19187462249999901</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2">
         <v>0</v>
       </c>
@@ -10545,14 +10100,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>1.94530999999999E-3</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
+        <v>0.26990894249999903</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2">
         <v>0</v>
       </c>
@@ -10565,14 +10116,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="2">
-        <v>1.28041699999999E-2</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
+        <v>0.23928963749999899</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2">
         <v>0</v>
       </c>
@@ -10585,14 +10132,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="2">
-        <v>5.3972409999999901E-2</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
+        <v>0.13887303749999899</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2">
         <v>0</v>
       </c>
@@ -10605,14 +10148,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="2">
-        <v>0.14723164999999899</v>
-      </c>
-      <c r="C44" s="2">
-        <v>4.1990400000000002E-4</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
+        <v>5.3038607499999897E-2</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>0</v>
       </c>
@@ -10625,14 +10164,10 @@
         <v>17</v>
       </c>
       <c r="B45" s="2">
-        <v>0.25707944999999899</v>
-      </c>
-      <c r="C45" s="2">
-        <v>5.4820800000000003E-3</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
+        <v>1.3056527499999899E-2</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
       </c>
@@ -10645,14 +10180,10 @@
         <v>18</v>
       </c>
       <c r="B46" s="2">
-        <v>0.27889613999999902</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3.0937139999999998E-2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
+        <v>1.9735199999999999E-3</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>0</v>
       </c>
@@ -10664,15 +10195,9 @@
       <c r="A47">
         <v>19</v>
       </c>
-      <c r="B47" s="2">
-        <v>0.17859528</v>
-      </c>
-      <c r="C47" s="2">
-        <v>9.9001547999999995E-2</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2">
         <v>0</v>
       </c>
@@ -10684,15 +10209,9 @@
       <c r="A48">
         <v>20</v>
       </c>
-      <c r="B48" s="2">
-        <v>6.0886080000000002E-2</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.19822479299999901</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2">
         <v>0</v>
       </c>
@@ -10704,15 +10223,11 @@
       <c r="A49">
         <v>21</v>
       </c>
-      <c r="B49" s="2">
-        <v>8.3980800000000005E-3</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2">
-        <v>0.25875830999999899</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
+        <v>7.5584999999999997E-4</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2">
         <v>0</v>
       </c>
@@ -10724,15 +10239,11 @@
       <c r="A50">
         <v>22</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2">
-        <v>0.22299143799999999</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
+        <v>7.9259250000000107E-3</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2">
         <v>0</v>
       </c>
@@ -10744,15 +10255,11 @@
       <c r="A51">
         <v>23</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2">
-        <v>0.126154197999999</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
+        <v>4.4334049999999903E-2</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2">
         <v>0</v>
       </c>
@@ -10764,15 +10271,11 @@
       <c r="A52">
         <v>24</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2">
-        <v>4.5997751999999802E-2</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
+        <v>0.142469024999999</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2">
         <v>0</v>
       </c>
@@ -10784,15 +10287,11 @@
       <c r="A53">
         <v>25</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2">
-        <v>1.05000819999999E-2</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
+        <v>0.271691549999999</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2">
         <v>0</v>
       </c>
@@ -10804,15 +10303,11 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2">
-        <v>1.4258859999999899E-3</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
+        <v>0.30351577499999899</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2">
         <v>0</v>
       </c>
@@ -10824,15 +10319,11 @@
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2">
-        <v>1.03781999999999E-4</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
+        <v>0.18321794999999899</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2">
         <v>0</v>
       </c>
@@ -10844,15 +10335,11 @@
       <c r="A56">
         <v>28</v>
       </c>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2">
-        <v>3.0869999999999901E-6</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
+        <v>4.6054574999999903E-2</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2">
         <v>0</v>
       </c>
@@ -10864,15 +10351,9 @@
       <c r="A57">
         <v>29</v>
       </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2">
         <v>0</v>
       </c>
@@ -10884,15 +10365,9 @@
       <c r="A58">
         <v>30</v>
       </c>
-      <c r="B58" s="2">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2">
         <v>0</v>
       </c>
@@ -10910,8 +10385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="V57" sqref="V57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10944,13 +10419,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -10961,13 +10436,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>9.9999999999999895E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -10981,19 +10456,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11004,10 +10479,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -11024,10 +10499,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -11041,13 +10516,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -11061,13 +10536,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -11081,13 +10556,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -11101,13 +10576,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.19999999999999901</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -11121,13 +10596,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>9.9999999999999895E-2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -11141,10 +10616,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="C12" s="1">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -11161,13 +10636,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -11181,13 +10656,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>0.6</v>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -11201,13 +10676,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -11228,55 +10703,55 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.978629720929031</v>
+      <c r="B18" s="2">
+        <v>0.56692915199999905</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3">
-        <v>1.9313423408560002E-2</v>
+      <c r="B19" s="2">
+        <v>0.23316940800000499</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
-        <v>1.52095576543E-3</v>
+      <c r="B20" s="2">
+        <v>0.19990117457921</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
-        <v>4.8407972108400002E-4</v>
+      <c r="B21" s="2">
+        <v>2.6542079999999999E-7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3">
-        <v>4.0237175886E-5</v>
+      <c r="B22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
-        <v>1.1583000000000001E-5</v>
+      <c r="B23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -11285,7 +10760,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>0.99999999999999101</v>
+        <v>1.00000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11312,17 +10787,11 @@
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <v>0.97999999999999199</v>
+        <v>0.99999999999997702</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -11332,54 +10801,40 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.57623999999999898</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2">
-        <v>1.99999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>0.749999999999999</v>
+        <v>0.99999999999997702</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>0.40767999999999399</v>
+        <v>1.2771924479999901E-3</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>0.249999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <v>1.592E-2</v>
+        <v>9.7099793279999992E-3</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -11392,14 +10847,10 @@
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>1.6000000000000001E-4</v>
+        <v>4.0282831871999901E-2</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -11412,14 +10863,10 @@
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>0.10518994079999899</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -11432,14 +10879,10 @@
       <c r="A34">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>0.18587772249599999</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -11452,14 +10895,10 @@
       <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <v>0</v>
+        <v>0.23123568262400199</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -11472,14 +10911,10 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>0.206616353024001</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -11495,11 +10930,9 @@
       <c r="B37" s="2">
         <v>0</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>0.133343560895999</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -11513,13 +10946,11 @@
         <v>10</v>
       </c>
       <c r="B38" s="2">
-        <v>1.93913999999999E-4</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
+        <v>6.8039999999999906E-2</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>0</v>
+        <v>6.1648156799999798E-2</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -11533,13 +10964,11 @@
         <v>11</v>
       </c>
       <c r="B39" s="2">
-        <v>3.07435499999999E-3</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
+        <v>0.240840000000001</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>1.9912131071999899E-2</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -11553,13 +10982,11 @@
         <v>12</v>
       </c>
       <c r="B40" s="2">
-        <v>2.07135045E-2</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
+        <v>0.340200000000003</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2">
-        <v>0</v>
+        <v>4.2663905279999997E-3</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -11573,13 +11000,11 @@
         <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>7.7943693250000001E-2</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
+        <v>0.24300000000000399</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <v>0</v>
+        <v>5.4469324800000005E-4</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -11593,14 +11018,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="2">
-        <v>0.18061811575</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
+        <v>9.0799999999999395E-2</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2">
         <v>0</v>
       </c>
@@ -11613,14 +11034,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="2">
-        <v>0.26705589524999901</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
+        <v>1.61599999999999E-2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2">
         <v>0</v>
       </c>
@@ -11633,14 +11050,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="2">
-        <v>0.25132820574999798</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2.0592E-10</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>0</v>
       </c>
@@ -11652,15 +11065,11 @@
       <c r="A45">
         <v>17</v>
       </c>
-      <c r="B45" s="2">
-        <v>0.14477647674999899</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2">
-        <v>3.8700600000000002E-8</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
+        <v>1.76947199999999E-3</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
       </c>
@@ -11672,15 +11081,11 @@
       <c r="A46">
         <v>18</v>
       </c>
-      <c r="B46" s="2">
-        <v>4.6660469250000003E-2</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2">
-        <v>2.8409262799999998E-6</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
+        <v>1.2506112E-2</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>0</v>
       </c>
@@ -11692,15 +11097,11 @@
       <c r="A47">
         <v>19</v>
       </c>
-      <c r="B47" s="2">
-        <v>7.1379967500000002E-3</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2">
-        <v>1.03067364799999E-4</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
+        <v>5.1254271999999802E-2</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2">
         <v>0</v>
       </c>
@@ -11712,15 +11113,11 @@
       <c r="A48">
         <v>20</v>
       </c>
-      <c r="B48" s="2">
-        <v>4.8579074999999998E-4</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2">
-        <v>1.9509084648E-3</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
+        <v>0.134260991999999</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="2">
         <v>0</v>
       </c>
@@ -11732,15 +11129,11 @@
       <c r="A49">
         <v>21</v>
       </c>
-      <c r="B49" s="2">
-        <v>1.1583000000000001E-5</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2">
-        <v>1.9313423408560002E-2</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
+        <v>0.23316940800000499</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2">
         <v>0</v>
       </c>
@@ -11752,15 +11145,11 @@
       <c r="A50">
         <v>22</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2">
-        <v>9.7045838016400002E-2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
+        <v>0.268532928000004</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2">
         <v>0</v>
       </c>
@@ -11772,15 +11161,11 @@
       <c r="A51">
         <v>23</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2">
-        <v>0.23435229213983899</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
+        <v>0.19780588800000001</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2">
         <v>0</v>
       </c>
@@ -11792,15 +11177,11 @@
       <c r="A52">
         <v>24</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2">
-        <v>0.30441520160719998</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
+        <v>8.4587328000000003E-2</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2">
         <v>0</v>
       </c>
@@ -11812,15 +11193,11 @@
       <c r="A53">
         <v>25</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2">
-        <v>0.22539681781819901</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
+        <v>1.6003007999999899E-2</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2">
         <v>0</v>
       </c>
@@ -11832,15 +11209,9 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2">
-        <v>9.4760107724519996E-2</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2">
         <v>0</v>
       </c>
@@ -11852,15 +11223,9 @@
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2.08343605679999E-2</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="2">
         <v>0</v>
       </c>
@@ -11872,15 +11237,9 @@
       <c r="A56">
         <v>28</v>
       </c>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1.8251030548799901E-3</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2">
         <v>0</v>
       </c>
@@ -11892,15 +11251,9 @@
       <c r="A57">
         <v>29</v>
       </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2">
         <v>0</v>
       </c>
@@ -11912,15 +11265,9 @@
       <c r="A58">
         <v>30</v>
       </c>
-      <c r="B58" s="2">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2">
         <v>0</v>
       </c>
